--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-role-label.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\hzero-iam\src\main\resources\script\db\init-data\hzero_platform\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15BDAF3-B922-4550-A613-C718021DCB42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7725FC0-0D8B-4809-B94A-1A88635E0750}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="221">
   <si>
     <r>
       <rPr>
@@ -53,7 +53,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>merge</t>
     </r>
@@ -85,7 +84,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">sheet </t>
     </r>
@@ -104,7 +102,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -123,7 +120,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">D7 </t>
     </r>
@@ -174,7 +170,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -193,7 +188,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -212,7 +206,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -235,7 +228,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -256,7 +248,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -278,7 +269,6 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>*</t>
     </r>
@@ -299,7 +289,6 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -330,7 +319,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>=</t>
     </r>
@@ -361,7 +349,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -380,7 +367,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">,sheet </t>
     </r>
@@ -399,7 +385,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -418,7 +403,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -437,7 +421,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>!</t>
     </r>
@@ -466,7 +449,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>*</t>
     </r>
@@ -485,7 +467,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -504,7 +485,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -523,7 +503,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -554,7 +533,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -573,7 +551,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -592,7 +569,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
@@ -612,7 +588,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -631,7 +606,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">*
 </t>
@@ -651,7 +625,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -682,7 +655,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">oracle </t>
     </r>
@@ -701,7 +673,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -725,7 +696,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -744,7 +714,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -763,7 +732,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -782,7 +750,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -801,7 +768,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -832,7 +798,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>.</t>
     </r>
@@ -863,7 +828,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -894,7 +858,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -913,7 +876,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -937,7 +899,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(TYPE)</t>
     </r>
@@ -956,7 +917,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -975,7 +935,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>:
 _ID</t>
@@ -995,7 +954,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
 _DATE </t>
@@ -1015,7 +973,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
 </t>
@@ -1035,7 +992,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>VARCHAR</t>
     </r>
@@ -1056,7 +1012,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
@@ -1076,7 +1031,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>:
 yyyy-MM-dd HH:mm:ss
@@ -1092,7 +1046,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">:LANG </t>
     </r>
@@ -1113,7 +1066,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">TL </t>
     </r>
@@ -1144,7 +1096,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1163,7 +1114,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1184,7 +1134,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1216,7 +1165,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1235,7 +1183,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1254,7 +1201,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1288,7 +1234,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>.</t>
     </r>
@@ -1307,7 +1252,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Excel </t>
     </r>
@@ -1326,7 +1270,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1345,7 +1288,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1390,7 +1332,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
     </r>
@@ -1435,7 +1376,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
     </r>
@@ -1469,7 +1409,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
     </r>
@@ -1488,7 +1427,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
     </r>
@@ -1507,7 +1445,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1527,7 +1464,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1551,7 +1487,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
     </r>
@@ -1570,7 +1505,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
     </r>
@@ -1589,7 +1523,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1609,7 +1542,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1663,7 +1595,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>:</t>
     </r>
@@ -1682,7 +1613,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
     </r>
@@ -1701,7 +1631,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A9 </t>
     </r>
@@ -1721,7 +1650,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
     </r>
@@ -1740,7 +1668,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F11 </t>
     </r>
@@ -1759,7 +1686,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, F11 </t>
     </r>
@@ -1778,7 +1704,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A10
 </t>
@@ -1798,7 +1723,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
     </r>
@@ -1817,7 +1741,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">G11 </t>
     </r>
@@ -1836,7 +1759,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, G11 </t>
     </r>
@@ -1855,7 +1777,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">B10
 </t>
@@ -1920,7 +1841,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1951,7 +1871,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1970,7 +1889,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
@@ -2543,7 +2461,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="50">
+  <fonts count="52">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2562,13 +2480,11 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2581,14 +2497,12 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2615,13 +2529,11 @@
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2852,6 +2764,20 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFC000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -2991,7 +2917,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3093,6 +3019,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4666,14 +4595,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:O39"/>
+  <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
   <cols>
+    <col min="5" max="5" width="14.5546875" customWidth="1"/>
     <col min="6" max="6" width="18.33203125" customWidth="1"/>
     <col min="7" max="7" width="15.33203125" customWidth="1"/>
     <col min="8" max="8" width="17.21875" customWidth="1"/>
@@ -5428,40 +5358,40 @@
       </c>
     </row>
     <row r="36" spans="5:9">
-      <c r="E36" t="s">
+      <c r="E36" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="69" t="s">
         <v>160</v>
       </c>
-      <c r="G36" t="str">
+      <c r="G36" s="69" t="str">
         <f>角色!E15</f>
         <v>iam_role-15</v>
       </c>
-      <c r="H36" t="str">
+      <c r="H36" s="69" t="str">
         <f>E12</f>
         <v>iam_label-12</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I36" s="69" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="37" spans="5:9">
-      <c r="E37" t="s">
+      <c r="E37" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="69" t="s">
         <v>160</v>
       </c>
-      <c r="G37" t="str">
-        <f>角色!E16</f>
-        <v>iam_role-16</v>
-      </c>
-      <c r="H37" t="str">
-        <f>E15</f>
-        <v>iam_label-15</v>
-      </c>
-      <c r="I37" t="s">
+      <c r="G37" s="69" t="str">
+        <f>角色!E15</f>
+        <v>iam_role-15</v>
+      </c>
+      <c r="H37" s="69" t="str">
+        <f>E11</f>
+        <v>iam_label-11</v>
+      </c>
+      <c r="I37" s="69" t="s">
         <v>97</v>
       </c>
     </row>
@@ -5473,12 +5403,12 @@
         <v>160</v>
       </c>
       <c r="G38" t="str">
-        <f>角色!E17</f>
-        <v>iam_role-17</v>
+        <f>角色!E16</f>
+        <v>iam_role-16</v>
       </c>
       <c r="H38" t="str">
-        <f>E14</f>
-        <v>iam_label-14</v>
+        <f>E11</f>
+        <v>iam_label-11</v>
       </c>
       <c r="I38" t="s">
         <v>97</v>
@@ -5492,14 +5422,128 @@
         <v>160</v>
       </c>
       <c r="G39" t="str">
+        <f>角色!E16</f>
+        <v>iam_role-16</v>
+      </c>
+      <c r="H39" t="str">
+        <f>E15</f>
+        <v>iam_label-15</v>
+      </c>
+      <c r="I39" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="5:9">
+      <c r="E40" s="67" t="s">
+        <v>96</v>
+      </c>
+      <c r="F40" s="67" t="s">
+        <v>160</v>
+      </c>
+      <c r="G40" s="67" t="str">
+        <f>角色!E17</f>
+        <v>iam_role-17</v>
+      </c>
+      <c r="H40" s="67" t="str">
+        <f>E13</f>
+        <v>iam_label-13</v>
+      </c>
+      <c r="I40" s="67" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="5:9">
+      <c r="E41" s="67" t="s">
+        <v>96</v>
+      </c>
+      <c r="F41" s="67" t="s">
+        <v>160</v>
+      </c>
+      <c r="G41" s="67" t="str">
+        <f>角色!E17</f>
+        <v>iam_role-17</v>
+      </c>
+      <c r="H41" s="67" t="str">
+        <f>E14</f>
+        <v>iam_label-14</v>
+      </c>
+      <c r="I41" s="67" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="5:9">
+      <c r="E42" s="67" t="s">
+        <v>96</v>
+      </c>
+      <c r="F42" s="67" t="s">
+        <v>160</v>
+      </c>
+      <c r="G42" s="67" t="str">
+        <f>角色!E17</f>
+        <v>iam_role-17</v>
+      </c>
+      <c r="H42" s="67" t="str">
+        <f>E18</f>
+        <v>iam_label-18</v>
+      </c>
+      <c r="I42" s="67" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="5:9">
+      <c r="E43" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="F43" s="68" t="s">
+        <v>160</v>
+      </c>
+      <c r="G43" s="68" t="str">
         <f>角色!E18</f>
         <v>iam_role-18</v>
       </c>
-      <c r="H39" t="str">
+      <c r="H43" s="68" t="str">
+        <f>E13</f>
+        <v>iam_label-13</v>
+      </c>
+      <c r="I43" s="68" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="5:9">
+      <c r="E44" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="F44" s="68" t="s">
+        <v>160</v>
+      </c>
+      <c r="G44" s="68" t="str">
+        <f>角色!E18</f>
+        <v>iam_role-18</v>
+      </c>
+      <c r="H44" s="68" t="str">
         <f>E16</f>
         <v>iam_label-16</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I44" s="68" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="5:9">
+      <c r="E45" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="F45" s="68" t="s">
+        <v>160</v>
+      </c>
+      <c r="G45" s="68" t="str">
+        <f>角色!E18</f>
+        <v>iam_role-18</v>
+      </c>
+      <c r="H45" s="68" t="str">
+        <f>E19</f>
+        <v>iam_label-19</v>
+      </c>
+      <c r="I45" s="68" t="s">
         <v>97</v>
       </c>
     </row>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-role-label.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\hzero-iam\src\main\resources\script\db\init-data\hzero_platform\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7725FC0-0D8B-4809-B94A-1A88635E0750}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE485D3-623C-4F8D-B32A-6F541CD4FBB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -53,6 +53,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>merge</t>
     </r>
@@ -84,6 +85,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">sheet </t>
     </r>
@@ -102,6 +104,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -120,6 +123,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">D7 </t>
     </r>
@@ -170,6 +174,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -188,6 +193,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -206,6 +212,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -228,6 +235,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -248,6 +256,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -269,6 +278,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>*</t>
     </r>
@@ -289,6 +299,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -319,6 +330,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>=</t>
     </r>
@@ -349,6 +361,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -367,6 +380,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">,sheet </t>
     </r>
@@ -385,6 +399,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -403,6 +418,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -421,6 +437,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>!</t>
     </r>
@@ -449,6 +466,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>*</t>
     </r>
@@ -467,6 +485,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -485,6 +504,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -503,6 +523,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -533,6 +554,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -551,6 +573,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -569,6 +592,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
@@ -588,6 +612,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -606,6 +631,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">*
 </t>
@@ -625,6 +651,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -655,6 +682,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">oracle </t>
     </r>
@@ -673,6 +701,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -696,6 +725,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -714,6 +744,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -732,6 +763,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -750,6 +782,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -768,6 +801,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -798,6 +832,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>.</t>
     </r>
@@ -828,6 +863,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -858,6 +894,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -876,6 +913,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -899,6 +937,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>(TYPE)</t>
     </r>
@@ -917,6 +956,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -935,6 +975,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>:
 _ID</t>
@@ -954,6 +995,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
 _DATE </t>
@@ -973,6 +1015,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
 </t>
@@ -992,6 +1035,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>VARCHAR</t>
     </r>
@@ -1012,6 +1056,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
@@ -1031,6 +1076,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>:
 yyyy-MM-dd HH:mm:ss
@@ -1046,6 +1092,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">:LANG </t>
     </r>
@@ -1066,6 +1113,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">TL </t>
     </r>
@@ -1096,6 +1144,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1114,6 +1163,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1134,6 +1184,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1165,6 +1216,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1183,6 +1235,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1201,6 +1254,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1234,6 +1288,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>.</t>
     </r>
@@ -1252,6 +1307,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Excel </t>
     </r>
@@ -1270,6 +1326,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1288,6 +1345,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1332,6 +1390,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
     </r>
@@ -1376,6 +1435,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
     </r>
@@ -1409,6 +1469,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
     </r>
@@ -1427,6 +1488,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
     </r>
@@ -1445,6 +1507,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1464,6 +1527,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1487,6 +1551,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
     </r>
@@ -1505,6 +1570,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
     </r>
@@ -1523,6 +1589,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1542,6 +1609,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1595,6 +1663,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>:</t>
     </r>
@@ -1613,6 +1682,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
     </r>
@@ -1631,6 +1701,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A9 </t>
     </r>
@@ -1650,6 +1721,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
     </r>
@@ -1668,6 +1740,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F11 </t>
     </r>
@@ -1686,6 +1759,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, F11 </t>
     </r>
@@ -1704,6 +1778,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A10
 </t>
@@ -1723,6 +1798,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
     </r>
@@ -1741,6 +1817,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">G11 </t>
     </r>
@@ -1759,6 +1836,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, G11 </t>
     </r>
@@ -1777,6 +1855,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">B10
 </t>
@@ -1841,6 +1920,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1871,6 +1951,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1889,6 +1970,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
@@ -2480,11 +2562,13 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2497,12 +2581,14 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2529,11 +2615,13 @@
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3004,6 +3092,9 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3019,9 +3110,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3390,11 +3478,11 @@
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -3403,21 +3491,21 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="62"/>
-      <c r="E3" s="64" t="s">
+      <c r="D3" s="65"/>
+      <c r="E3" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
     </row>
     <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="65"/>
+      <c r="D4" s="68"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -3528,11 +3616,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="66" t="s">
+      <c r="C19" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
     </row>
     <row r="20" spans="3:5" ht="18">
       <c r="C20" s="24" t="s">
@@ -3570,19 +3658,19 @@
       <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="62" t="s">
+      <c r="D25" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="62"/>
+      <c r="E25" s="65"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="62" t="s">
+      <c r="D26" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="62"/>
+      <c r="E26" s="65"/>
     </row>
     <row r="27" spans="3:5" ht="51.75">
       <c r="C27" s="26" t="s">
@@ -3609,8 +3697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Y28"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -3619,8 +3707,11 @@
     <col min="5" max="5" width="24.77734375" customWidth="1"/>
     <col min="6" max="6" width="21.21875" customWidth="1"/>
     <col min="7" max="7" width="19.77734375" customWidth="1"/>
+    <col min="8" max="8" width="22.77734375" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" customWidth="1"/>
     <col min="12" max="12" width="10.44140625" customWidth="1"/>
-    <col min="13" max="13" width="11.77734375" customWidth="1"/>
+    <col min="13" max="13" width="16.44140625" customWidth="1"/>
+    <col min="14" max="14" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -4176,8 +4267,8 @@
         <v>iam_role-10</v>
       </c>
       <c r="M15" t="str">
-        <f>E10</f>
-        <v>iam_role-10</v>
+        <f>E9</f>
+        <v>iam_role-9</v>
       </c>
       <c r="N15" t="s">
         <v>58</v>
@@ -4240,8 +4331,8 @@
         <v>iam_role-11</v>
       </c>
       <c r="M16" t="str">
-        <f>E11</f>
-        <v>iam_role-11</v>
+        <f>E9</f>
+        <v>iam_role-9</v>
       </c>
       <c r="N16" t="s">
         <v>58</v>
@@ -4304,8 +4395,8 @@
         <v>iam_role-12</v>
       </c>
       <c r="M17" t="str">
-        <f>E12</f>
-        <v>iam_role-12</v>
+        <f>E9</f>
+        <v>iam_role-9</v>
       </c>
       <c r="N17" t="s">
         <v>58</v>
@@ -4368,8 +4459,8 @@
         <v>iam_role-13</v>
       </c>
       <c r="M18" t="str">
-        <f>E13</f>
-        <v>iam_role-13</v>
+        <f>E9</f>
+        <v>iam_role-9</v>
       </c>
       <c r="N18" t="s">
         <v>58</v>
@@ -4597,7 +4688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
@@ -5358,40 +5449,40 @@
       </c>
     </row>
     <row r="36" spans="5:9">
-      <c r="E36" s="69" t="s">
+      <c r="E36" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="F36" s="69" t="s">
+      <c r="F36" s="64" t="s">
         <v>160</v>
       </c>
-      <c r="G36" s="69" t="str">
+      <c r="G36" s="64" t="str">
         <f>角色!E15</f>
         <v>iam_role-15</v>
       </c>
-      <c r="H36" s="69" t="str">
+      <c r="H36" s="64" t="str">
         <f>E12</f>
         <v>iam_label-12</v>
       </c>
-      <c r="I36" s="69" t="s">
+      <c r="I36" s="64" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="37" spans="5:9">
-      <c r="E37" s="69" t="s">
+      <c r="E37" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="F37" s="69" t="s">
+      <c r="F37" s="64" t="s">
         <v>160</v>
       </c>
-      <c r="G37" s="69" t="str">
+      <c r="G37" s="64" t="str">
         <f>角色!E15</f>
         <v>iam_role-15</v>
       </c>
-      <c r="H37" s="69" t="str">
+      <c r="H37" s="64" t="str">
         <f>E11</f>
         <v>iam_label-11</v>
       </c>
-      <c r="I37" s="69" t="s">
+      <c r="I37" s="64" t="s">
         <v>97</v>
       </c>
     </row>
@@ -5434,116 +5525,116 @@
       </c>
     </row>
     <row r="40" spans="5:9">
-      <c r="E40" s="67" t="s">
+      <c r="E40" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="F40" s="67" t="s">
+      <c r="F40" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="G40" s="67" t="str">
+      <c r="G40" s="62" t="str">
         <f>角色!E17</f>
         <v>iam_role-17</v>
       </c>
-      <c r="H40" s="67" t="str">
+      <c r="H40" s="62" t="str">
         <f>E13</f>
         <v>iam_label-13</v>
       </c>
-      <c r="I40" s="67" t="s">
+      <c r="I40" s="62" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="41" spans="5:9">
-      <c r="E41" s="67" t="s">
+      <c r="E41" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="F41" s="67" t="s">
+      <c r="F41" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="G41" s="67" t="str">
+      <c r="G41" s="62" t="str">
         <f>角色!E17</f>
         <v>iam_role-17</v>
       </c>
-      <c r="H41" s="67" t="str">
+      <c r="H41" s="62" t="str">
         <f>E14</f>
         <v>iam_label-14</v>
       </c>
-      <c r="I41" s="67" t="s">
+      <c r="I41" s="62" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="42" spans="5:9">
-      <c r="E42" s="67" t="s">
+      <c r="E42" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="F42" s="67" t="s">
+      <c r="F42" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="G42" s="67" t="str">
+      <c r="G42" s="62" t="str">
         <f>角色!E17</f>
         <v>iam_role-17</v>
       </c>
-      <c r="H42" s="67" t="str">
+      <c r="H42" s="62" t="str">
         <f>E18</f>
         <v>iam_label-18</v>
       </c>
-      <c r="I42" s="67" t="s">
+      <c r="I42" s="62" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="43" spans="5:9">
-      <c r="E43" s="68" t="s">
+      <c r="E43" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="F43" s="68" t="s">
+      <c r="F43" s="63" t="s">
         <v>160</v>
       </c>
-      <c r="G43" s="68" t="str">
+      <c r="G43" s="63" t="str">
         <f>角色!E18</f>
         <v>iam_role-18</v>
       </c>
-      <c r="H43" s="68" t="str">
+      <c r="H43" s="63" t="str">
         <f>E13</f>
         <v>iam_label-13</v>
       </c>
-      <c r="I43" s="68" t="s">
+      <c r="I43" s="63" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="44" spans="5:9">
-      <c r="E44" s="68" t="s">
+      <c r="E44" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="F44" s="68" t="s">
+      <c r="F44" s="63" t="s">
         <v>160</v>
       </c>
-      <c r="G44" s="68" t="str">
+      <c r="G44" s="63" t="str">
         <f>角色!E18</f>
         <v>iam_role-18</v>
       </c>
-      <c r="H44" s="68" t="str">
+      <c r="H44" s="63" t="str">
         <f>E16</f>
         <v>iam_label-16</v>
       </c>
-      <c r="I44" s="68" t="s">
+      <c r="I44" s="63" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="45" spans="5:9">
-      <c r="E45" s="68" t="s">
+      <c r="E45" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="F45" s="68" t="s">
+      <c r="F45" s="63" t="s">
         <v>160</v>
       </c>
-      <c r="G45" s="68" t="str">
+      <c r="G45" s="63" t="str">
         <f>角色!E18</f>
         <v>iam_role-18</v>
       </c>
-      <c r="H45" s="68" t="str">
+      <c r="H45" s="63" t="str">
         <f>E19</f>
         <v>iam_label-19</v>
       </c>
-      <c r="I45" s="68" t="s">
+      <c r="I45" s="63" t="s">
         <v>97</v>
       </c>
     </row>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-role-label.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\hzero-iam\src\main\resources\script\db\init-data\hzero_platform\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE485D3-623C-4F8D-B32A-6F541CD4FBB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5959132B-36A4-4001-8D20-80AEFD334B5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4331,8 +4331,8 @@
         <v>iam_role-11</v>
       </c>
       <c r="M16" t="str">
-        <f>E9</f>
-        <v>iam_role-9</v>
+        <f>E15</f>
+        <v>iam_role-15</v>
       </c>
       <c r="N16" t="s">
         <v>58</v>
@@ -4395,8 +4395,8 @@
         <v>iam_role-12</v>
       </c>
       <c r="M17" t="str">
-        <f>E9</f>
-        <v>iam_role-9</v>
+        <f>E15</f>
+        <v>iam_role-15</v>
       </c>
       <c r="N17" t="s">
         <v>58</v>
@@ -4459,8 +4459,8 @@
         <v>iam_role-13</v>
       </c>
       <c r="M18" t="str">
-        <f>E9</f>
-        <v>iam_role-9</v>
+        <f>E15</f>
+        <v>iam_role-15</v>
       </c>
       <c r="N18" t="s">
         <v>58</v>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-role-label.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\hzero-iam\src\main\resources\script\db\init-data\hzero_platform\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7725FC0-0D8B-4809-B94A-1A88635E0750}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7357E7EB-5958-43F6-933F-FE3A05F1D624}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -53,6 +53,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>merge</t>
     </r>
@@ -84,6 +85,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">sheet </t>
     </r>
@@ -102,6 +104,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -120,6 +123,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">D7 </t>
     </r>
@@ -170,6 +174,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -188,6 +193,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -206,6 +212,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -228,6 +235,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -248,6 +256,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -269,6 +278,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>*</t>
     </r>
@@ -289,6 +299,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -319,6 +330,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>=</t>
     </r>
@@ -349,6 +361,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -367,6 +380,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">,sheet </t>
     </r>
@@ -385,6 +399,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -403,6 +418,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -421,6 +437,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>!</t>
     </r>
@@ -449,6 +466,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>*</t>
     </r>
@@ -467,6 +485,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -485,6 +504,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -503,6 +523,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -533,6 +554,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -551,6 +573,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -569,6 +592,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
@@ -588,6 +612,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -606,6 +631,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">*
 </t>
@@ -625,6 +651,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -655,6 +682,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">oracle </t>
     </r>
@@ -673,6 +701,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -696,6 +725,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -714,6 +744,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -732,6 +763,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -750,6 +782,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -768,6 +801,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -798,6 +832,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>.</t>
     </r>
@@ -828,6 +863,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -858,6 +894,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -876,6 +913,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -899,6 +937,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>(TYPE)</t>
     </r>
@@ -917,6 +956,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -935,6 +975,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>:
 _ID</t>
@@ -954,6 +995,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
 _DATE </t>
@@ -973,6 +1015,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
 </t>
@@ -992,6 +1035,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>VARCHAR</t>
     </r>
@@ -1012,6 +1056,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
@@ -1031,6 +1076,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>:
 yyyy-MM-dd HH:mm:ss
@@ -1046,6 +1092,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">:LANG </t>
     </r>
@@ -1066,6 +1113,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">TL </t>
     </r>
@@ -1096,6 +1144,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1114,6 +1163,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1134,6 +1184,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1165,6 +1216,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1183,6 +1235,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1201,6 +1254,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1234,6 +1288,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>.</t>
     </r>
@@ -1252,6 +1307,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Excel </t>
     </r>
@@ -1270,6 +1326,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1288,6 +1345,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1332,6 +1390,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
     </r>
@@ -1376,6 +1435,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
     </r>
@@ -1409,6 +1469,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
     </r>
@@ -1427,6 +1488,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
     </r>
@@ -1445,6 +1507,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1464,6 +1527,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1487,6 +1551,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
     </r>
@@ -1505,6 +1570,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
     </r>
@@ -1523,6 +1589,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1542,6 +1609,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1595,6 +1663,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>:</t>
     </r>
@@ -1613,6 +1682,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
     </r>
@@ -1631,6 +1701,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A9 </t>
     </r>
@@ -1650,6 +1721,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
     </r>
@@ -1668,6 +1740,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F11 </t>
     </r>
@@ -1686,6 +1759,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, F11 </t>
     </r>
@@ -1704,6 +1778,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A10
 </t>
@@ -1723,6 +1798,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
     </r>
@@ -1741,6 +1817,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">G11 </t>
     </r>
@@ -1759,6 +1836,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, G11 </t>
     </r>
@@ -1777,6 +1855,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">B10
 </t>
@@ -1841,6 +1920,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1871,6 +1951,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1889,6 +1970,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
@@ -2480,11 +2562,13 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2497,12 +2581,14 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2529,11 +2615,13 @@
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3004,6 +3092,9 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3019,9 +3110,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3390,11 +3478,11 @@
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -3403,21 +3491,21 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="62"/>
-      <c r="E3" s="64" t="s">
+      <c r="D3" s="65"/>
+      <c r="E3" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
     </row>
     <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="65"/>
+      <c r="D4" s="68"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -3528,11 +3616,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="66" t="s">
+      <c r="C19" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
     </row>
     <row r="20" spans="3:5" ht="18">
       <c r="C20" s="24" t="s">
@@ -3570,19 +3658,19 @@
       <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="62" t="s">
+      <c r="D25" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="62"/>
+      <c r="E25" s="65"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="62" t="s">
+      <c r="D26" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="62"/>
+      <c r="E26" s="65"/>
     </row>
     <row r="27" spans="3:5" ht="51.75">
       <c r="C27" s="26" t="s">
@@ -3609,8 +3697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Y28"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -4176,8 +4264,8 @@
         <v>iam_role-10</v>
       </c>
       <c r="M15" t="str">
-        <f>E10</f>
-        <v>iam_role-10</v>
+        <f>E9</f>
+        <v>iam_role-9</v>
       </c>
       <c r="N15" t="s">
         <v>58</v>
@@ -4240,8 +4328,8 @@
         <v>iam_role-11</v>
       </c>
       <c r="M16" t="str">
-        <f>E11</f>
-        <v>iam_role-11</v>
+        <f>E15</f>
+        <v>iam_role-15</v>
       </c>
       <c r="N16" t="s">
         <v>58</v>
@@ -4304,8 +4392,8 @@
         <v>iam_role-12</v>
       </c>
       <c r="M17" t="str">
-        <f>E12</f>
-        <v>iam_role-12</v>
+        <f>E15</f>
+        <v>iam_role-15</v>
       </c>
       <c r="N17" t="s">
         <v>58</v>
@@ -4368,8 +4456,8 @@
         <v>iam_role-13</v>
       </c>
       <c r="M18" t="str">
-        <f>E13</f>
-        <v>iam_role-13</v>
+        <f>E15</f>
+        <v>iam_role-15</v>
       </c>
       <c r="N18" t="s">
         <v>58</v>
@@ -4597,7 +4685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
@@ -5358,40 +5446,40 @@
       </c>
     </row>
     <row r="36" spans="5:9">
-      <c r="E36" s="69" t="s">
+      <c r="E36" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="F36" s="69" t="s">
+      <c r="F36" s="64" t="s">
         <v>160</v>
       </c>
-      <c r="G36" s="69" t="str">
+      <c r="G36" s="64" t="str">
         <f>角色!E15</f>
         <v>iam_role-15</v>
       </c>
-      <c r="H36" s="69" t="str">
+      <c r="H36" s="64" t="str">
         <f>E12</f>
         <v>iam_label-12</v>
       </c>
-      <c r="I36" s="69" t="s">
+      <c r="I36" s="64" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="37" spans="5:9">
-      <c r="E37" s="69" t="s">
+      <c r="E37" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="F37" s="69" t="s">
+      <c r="F37" s="64" t="s">
         <v>160</v>
       </c>
-      <c r="G37" s="69" t="str">
+      <c r="G37" s="64" t="str">
         <f>角色!E15</f>
         <v>iam_role-15</v>
       </c>
-      <c r="H37" s="69" t="str">
+      <c r="H37" s="64" t="str">
         <f>E11</f>
         <v>iam_label-11</v>
       </c>
-      <c r="I37" s="69" t="s">
+      <c r="I37" s="64" t="s">
         <v>97</v>
       </c>
     </row>
@@ -5434,116 +5522,116 @@
       </c>
     </row>
     <row r="40" spans="5:9">
-      <c r="E40" s="67" t="s">
+      <c r="E40" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="F40" s="67" t="s">
+      <c r="F40" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="G40" s="67" t="str">
+      <c r="G40" s="62" t="str">
         <f>角色!E17</f>
         <v>iam_role-17</v>
       </c>
-      <c r="H40" s="67" t="str">
+      <c r="H40" s="62" t="str">
         <f>E13</f>
         <v>iam_label-13</v>
       </c>
-      <c r="I40" s="67" t="s">
+      <c r="I40" s="62" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="41" spans="5:9">
-      <c r="E41" s="67" t="s">
+      <c r="E41" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="F41" s="67" t="s">
+      <c r="F41" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="G41" s="67" t="str">
+      <c r="G41" s="62" t="str">
         <f>角色!E17</f>
         <v>iam_role-17</v>
       </c>
-      <c r="H41" s="67" t="str">
+      <c r="H41" s="62" t="str">
         <f>E14</f>
         <v>iam_label-14</v>
       </c>
-      <c r="I41" s="67" t="s">
+      <c r="I41" s="62" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="42" spans="5:9">
-      <c r="E42" s="67" t="s">
+      <c r="E42" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="F42" s="67" t="s">
+      <c r="F42" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="G42" s="67" t="str">
+      <c r="G42" s="62" t="str">
         <f>角色!E17</f>
         <v>iam_role-17</v>
       </c>
-      <c r="H42" s="67" t="str">
+      <c r="H42" s="62" t="str">
         <f>E18</f>
         <v>iam_label-18</v>
       </c>
-      <c r="I42" s="67" t="s">
+      <c r="I42" s="62" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="43" spans="5:9">
-      <c r="E43" s="68" t="s">
+      <c r="E43" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="F43" s="68" t="s">
+      <c r="F43" s="63" t="s">
         <v>160</v>
       </c>
-      <c r="G43" s="68" t="str">
+      <c r="G43" s="63" t="str">
         <f>角色!E18</f>
         <v>iam_role-18</v>
       </c>
-      <c r="H43" s="68" t="str">
+      <c r="H43" s="63" t="str">
         <f>E13</f>
         <v>iam_label-13</v>
       </c>
-      <c r="I43" s="68" t="s">
+      <c r="I43" s="63" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="44" spans="5:9">
-      <c r="E44" s="68" t="s">
+      <c r="E44" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="F44" s="68" t="s">
+      <c r="F44" s="63" t="s">
         <v>160</v>
       </c>
-      <c r="G44" s="68" t="str">
+      <c r="G44" s="63" t="str">
         <f>角色!E18</f>
         <v>iam_role-18</v>
       </c>
-      <c r="H44" s="68" t="str">
+      <c r="H44" s="63" t="str">
         <f>E16</f>
         <v>iam_label-16</v>
       </c>
-      <c r="I44" s="68" t="s">
+      <c r="I44" s="63" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="45" spans="5:9">
-      <c r="E45" s="68" t="s">
+      <c r="E45" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="F45" s="68" t="s">
+      <c r="F45" s="63" t="s">
         <v>160</v>
       </c>
-      <c r="G45" s="68" t="str">
+      <c r="G45" s="63" t="str">
         <f>角色!E18</f>
         <v>iam_role-18</v>
       </c>
-      <c r="H45" s="68" t="str">
+      <c r="H45" s="63" t="str">
         <f>E19</f>
         <v>iam_label-19</v>
       </c>
-      <c r="I45" s="68" t="s">
+      <c r="I45" s="63" t="s">
         <v>97</v>
       </c>
     </row>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-role-label.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\hzero-iam\src\main\resources\script\db\init-data\hzero_platform\hzero_platform\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\new-choerodon\choerodon-iam\src\main\resources\script\db\init-data\hzero_platform\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5959132B-36A4-4001-8D20-80AEFD334B5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99263324-47BA-4D29-BF8A-E2B079842453}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -24,19 +24,11 @@
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
   <calcPr calcId="181029" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="229">
   <si>
     <r>
       <rPr>
@@ -2326,9 +2318,6 @@
     <t>平台开发者</t>
   </si>
   <si>
-    <t>role/site/default/developer</t>
-  </si>
-  <si>
     <t>角色权限</t>
   </si>
   <si>
@@ -2537,6 +2526,53 @@
   </si>
   <si>
     <t>Tenant admin</t>
+  </si>
+  <si>
+    <t>市场审核员</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>role/site/default/developer</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>role/site/default/m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>arketAuditor</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>site</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>role/site/default/marketAuditor</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场审核员市场审核员</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Market auditor</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>iam_role-19</t>
   </si>
 </sst>
 </file>
@@ -3458,21 +3494,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.58203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" customWidth="1"/>
+    <col min="3" max="3" width="28.08203125" customWidth="1"/>
     <col min="4" max="4" width="35.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="38.5546875" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" customWidth="1"/>
-    <col min="7" max="7" width="21.5546875" customWidth="1"/>
+    <col min="5" max="5" width="38.58203125" customWidth="1"/>
+    <col min="6" max="6" width="23.4140625" customWidth="1"/>
+    <col min="7" max="7" width="21.58203125" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5546875" customWidth="1"/>
+    <col min="9" max="9" width="24.58203125" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.109375" customWidth="1"/>
-    <col min="12" max="12" width="18.5546875" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" customWidth="1"/>
+    <col min="11" max="11" width="19.08203125" customWidth="1"/>
+    <col min="12" max="12" width="18.58203125" customWidth="1"/>
+    <col min="13" max="13" width="13.08203125" customWidth="1"/>
     <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3487,7 +3523,7 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8" ht="18">
+    <row r="2" spans="1:8">
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
@@ -3501,7 +3537,7 @@
       <c r="F3" s="67"/>
       <c r="G3" s="67"/>
     </row>
-    <row r="4" spans="1:8" ht="18">
+    <row r="4" spans="1:8">
       <c r="C4" s="68" t="s">
         <v>3</v>
       </c>
@@ -3522,7 +3558,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18">
+    <row r="7" spans="1:8">
       <c r="C7" s="10" t="s">
         <v>8</v>
       </c>
@@ -3542,7 +3578,7 @@
       </c>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" spans="1:8" ht="51.75">
+    <row r="9" spans="1:8" ht="52.2">
       <c r="C9" s="16" t="s">
         <v>13</v>
       </c>
@@ -3556,7 +3592,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="51.75">
+    <row r="10" spans="1:8" ht="52.2">
       <c r="C10" s="19" t="s">
         <v>17</v>
       </c>
@@ -3567,7 +3603,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69">
+    <row r="11" spans="1:8" ht="69.599999999999994">
       <c r="C11" s="13" t="s">
         <v>20</v>
       </c>
@@ -3599,7 +3635,7 @@
       <c r="D14" s="14"/>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:8" ht="34.5">
+    <row r="15" spans="1:8" ht="34.799999999999997">
       <c r="C15" s="21" t="s">
         <v>26</v>
       </c>
@@ -3622,7 +3658,7 @@
       <c r="D19" s="69"/>
       <c r="E19" s="69"/>
     </row>
-    <row r="20" spans="3:5" ht="18">
+    <row r="20" spans="3:5">
       <c r="C20" s="24" t="s">
         <v>31</v>
       </c>
@@ -3630,7 +3666,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="18">
+    <row r="21" spans="3:5">
       <c r="C21" s="24" t="s">
         <v>33</v>
       </c>
@@ -3638,7 +3674,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="18">
+    <row r="22" spans="3:5">
       <c r="C22" s="24" t="s">
         <v>35</v>
       </c>
@@ -3646,7 +3682,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="18">
+    <row r="23" spans="3:5">
       <c r="C23" s="24" t="s">
         <v>37</v>
       </c>
@@ -3672,7 +3708,7 @@
       </c>
       <c r="E26" s="65"/>
     </row>
-    <row r="27" spans="3:5" ht="51.75">
+    <row r="27" spans="3:5" ht="52.2">
       <c r="C27" s="26" t="s">
         <v>43</v>
       </c>
@@ -3695,23 +3731,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:Y28"/>
+  <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18:E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="4" max="4" width="18.44140625" customWidth="1"/>
-    <col min="5" max="5" width="24.77734375" customWidth="1"/>
-    <col min="6" max="6" width="21.21875" customWidth="1"/>
-    <col min="7" max="7" width="19.77734375" customWidth="1"/>
-    <col min="8" max="8" width="22.77734375" customWidth="1"/>
-    <col min="11" max="11" width="14.5546875" customWidth="1"/>
-    <col min="12" max="12" width="10.44140625" customWidth="1"/>
-    <col min="13" max="13" width="16.44140625" customWidth="1"/>
-    <col min="14" max="14" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="18.4140625" customWidth="1"/>
+    <col min="5" max="5" width="24.75" customWidth="1"/>
+    <col min="6" max="6" width="21.25" customWidth="1"/>
+    <col min="7" max="7" width="19.75" customWidth="1"/>
+    <col min="8" max="8" width="34.5" customWidth="1"/>
+    <col min="11" max="11" width="14.58203125" customWidth="1"/>
+    <col min="12" max="12" width="10.4140625" customWidth="1"/>
+    <col min="13" max="13" width="16.4140625" customWidth="1"/>
+    <col min="14" max="14" width="18.08203125" customWidth="1"/>
+    <col min="20" max="20" width="20.33203125" customWidth="1"/>
+    <col min="21" max="21" width="29.58203125" customWidth="1"/>
+    <col min="22" max="22" width="23.5" customWidth="1"/>
+    <col min="25" max="25" width="19.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -3832,8 +3872,8 @@
       <c r="I8" t="s">
         <v>118</v>
       </c>
-      <c r="J8" t="s">
-        <v>62</v>
+      <c r="J8" s="61" t="s">
+        <v>223</v>
       </c>
       <c r="K8" t="s">
         <v>59</v>
@@ -3844,8 +3884,8 @@
       <c r="M8" t="s">
         <v>59</v>
       </c>
-      <c r="N8" t="s">
-        <v>58</v>
+      <c r="N8" s="61" t="s">
+        <v>224</v>
       </c>
       <c r="O8" t="s">
         <v>59</v>
@@ -4054,7 +4094,7 @@
         <v>59</v>
       </c>
       <c r="X11" s="61" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Y11" t="s">
         <v>138</v>
@@ -4196,8 +4236,8 @@
       <c r="G14" t="s">
         <v>156</v>
       </c>
-      <c r="H14" t="s">
-        <v>157</v>
+      <c r="H14" s="61" t="s">
+        <v>221</v>
       </c>
       <c r="J14" t="s">
         <v>62</v>
@@ -4234,10 +4274,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="s">
+        <v>189</v>
+      </c>
+      <c r="V14" t="s">
         <v>190</v>
-      </c>
-      <c r="V14" t="s">
-        <v>191</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -4245,16 +4285,16 @@
     </row>
     <row r="15" spans="1:25">
       <c r="E15" s="61" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F15" s="61" t="s">
+        <v>191</v>
+      </c>
+      <c r="G15" s="61" t="s">
+        <v>191</v>
+      </c>
+      <c r="H15" t="s">
         <v>192</v>
-      </c>
-      <c r="G15" s="61" t="s">
-        <v>192</v>
-      </c>
-      <c r="H15" t="s">
-        <v>193</v>
       </c>
       <c r="J15" t="s">
         <v>58</v>
@@ -4292,10 +4332,10 @@
         <v>0</v>
       </c>
       <c r="U15" t="s">
+        <v>193</v>
+      </c>
+      <c r="V15" t="s">
         <v>194</v>
-      </c>
-      <c r="V15" t="s">
-        <v>195</v>
       </c>
       <c r="W15">
         <v>0</v>
@@ -4309,16 +4349,16 @@
     </row>
     <row r="16" spans="1:25">
       <c r="E16" s="61" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F16" s="61" t="s">
+        <v>196</v>
+      </c>
+      <c r="G16" s="61" t="s">
+        <v>196</v>
+      </c>
+      <c r="H16" t="s">
         <v>197</v>
-      </c>
-      <c r="G16" s="61" t="s">
-        <v>197</v>
-      </c>
-      <c r="H16" t="s">
-        <v>198</v>
       </c>
       <c r="J16" t="s">
         <v>58</v>
@@ -4356,10 +4396,10 @@
         <v>1</v>
       </c>
       <c r="U16" t="s">
+        <v>198</v>
+      </c>
+      <c r="V16" s="61" t="s">
         <v>199</v>
-      </c>
-      <c r="V16" s="61" t="s">
-        <v>200</v>
       </c>
       <c r="W16" s="61">
         <v>0</v>
@@ -4373,16 +4413,16 @@
     </row>
     <row r="17" spans="1:25">
       <c r="E17" s="61" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F17" s="61" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G17" s="61" t="s">
         <v>145</v>
       </c>
       <c r="H17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J17" t="s">
         <v>58</v>
@@ -4420,16 +4460,16 @@
         <v>1</v>
       </c>
       <c r="U17" t="s">
+        <v>202</v>
+      </c>
+      <c r="V17" t="s">
         <v>203</v>
-      </c>
-      <c r="V17" t="s">
-        <v>204</v>
       </c>
       <c r="W17" s="61">
         <v>0</v>
       </c>
       <c r="X17" s="61" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Y17" t="s">
         <v>146</v>
@@ -4437,16 +4477,16 @@
     </row>
     <row r="18" spans="1:25">
       <c r="E18" s="61" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F18" s="61" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G18" s="61" t="s">
         <v>153</v>
       </c>
       <c r="H18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J18" t="s">
         <v>58</v>
@@ -4484,73 +4524,118 @@
         <v>1</v>
       </c>
       <c r="U18" t="s">
+        <v>206</v>
+      </c>
+      <c r="V18" t="s">
         <v>207</v>
-      </c>
-      <c r="V18" t="s">
-        <v>208</v>
       </c>
       <c r="W18" s="61">
         <v>0</v>
       </c>
       <c r="X18" s="61" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
+      <c r="E19" s="61" t="s">
+        <v>228</v>
+      </c>
+      <c r="F19" s="61" t="s">
+        <v>220</v>
+      </c>
+      <c r="G19" s="61" t="s">
+        <v>220</v>
+      </c>
+      <c r="H19" s="61" t="s">
+        <v>222</v>
+      </c>
+      <c r="J19" s="61" t="s">
+        <v>223</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19" t="str">
+        <f>角色!$E$9</f>
+        <v>iam_role-9</v>
+      </c>
+      <c r="N19" t="s">
+        <v>58</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19" s="61" t="s">
+        <v>225</v>
+      </c>
+      <c r="V19" s="61" t="s">
+        <v>225</v>
+      </c>
+      <c r="W19" s="61">
+        <v>0</v>
+      </c>
+      <c r="X19" s="61" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y19" s="61" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+    </row>
+    <row r="21" spans="1:25">
+      <c r="A21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" t="s">
+        <v>157</v>
+      </c>
+      <c r="D21" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="Y18" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25">
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-    </row>
-    <row r="20" spans="1:25">
-      <c r="A20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" t="s">
-        <v>158</v>
-      </c>
-      <c r="D20" s="27" t="s">
+      <c r="E21" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="F21" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="E20" s="28" t="s">
-        <v>215</v>
-      </c>
-      <c r="F20" s="29" t="s">
+      <c r="G21" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="H21" s="61" t="s">
         <v>211</v>
       </c>
-      <c r="G20" s="29" t="s">
-        <v>214</v>
-      </c>
-      <c r="H20" s="61" t="s">
+      <c r="I21" t="s">
         <v>212</v>
       </c>
-      <c r="I20" t="s">
-        <v>213</v>
-      </c>
-      <c r="J20" s="51"/>
-    </row>
-    <row r="21" spans="1:25">
-      <c r="E21" t="str">
-        <f>E15</f>
-        <v>iam_role-15</v>
-      </c>
-      <c r="F21" t="s">
-        <v>219</v>
-      </c>
-      <c r="G21" s="61" t="s">
-        <v>192</v>
-      </c>
-      <c r="H21" s="61" t="s">
-        <v>192</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
+      <c r="J21" s="51"/>
     </row>
     <row r="22" spans="1:25">
       <c r="E22" t="str">
@@ -4558,13 +4643,13 @@
         <v>iam_role-15</v>
       </c>
       <c r="F22" t="s">
-        <v>216</v>
-      </c>
-      <c r="G22" t="s">
-        <v>220</v>
-      </c>
-      <c r="H22" t="s">
-        <v>220</v>
+        <v>218</v>
+      </c>
+      <c r="G22" s="61" t="s">
+        <v>191</v>
+      </c>
+      <c r="H22" s="61" t="s">
+        <v>191</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -4572,17 +4657,17 @@
     </row>
     <row r="23" spans="1:25">
       <c r="E23" t="str">
-        <f>E16</f>
-        <v>iam_role-16</v>
+        <f>E15</f>
+        <v>iam_role-15</v>
       </c>
       <c r="F23" t="s">
+        <v>215</v>
+      </c>
+      <c r="G23" t="s">
         <v>219</v>
       </c>
-      <c r="G23" s="61" t="s">
-        <v>197</v>
-      </c>
-      <c r="H23" s="61" t="s">
-        <v>197</v>
+      <c r="H23" t="s">
+        <v>219</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -4594,13 +4679,13 @@
         <v>iam_role-16</v>
       </c>
       <c r="F24" t="s">
-        <v>216</v>
-      </c>
-      <c r="G24" t="s">
-        <v>198</v>
-      </c>
-      <c r="H24" t="s">
-        <v>198</v>
+        <v>218</v>
+      </c>
+      <c r="G24" s="61" t="s">
+        <v>196</v>
+      </c>
+      <c r="H24" s="61" t="s">
+        <v>196</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -4608,17 +4693,17 @@
     </row>
     <row r="25" spans="1:25">
       <c r="E25" t="str">
-        <f>E17</f>
-        <v>iam_role-17</v>
+        <f>E16</f>
+        <v>iam_role-16</v>
       </c>
       <c r="F25" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G25" t="s">
-        <v>145</v>
+        <v>197</v>
       </c>
       <c r="H25" t="s">
-        <v>145</v>
+        <v>197</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -4630,13 +4715,13 @@
         <v>iam_role-17</v>
       </c>
       <c r="F26" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -4644,17 +4729,17 @@
     </row>
     <row r="27" spans="1:25">
       <c r="E27" t="str">
-        <f>E18</f>
-        <v>iam_role-18</v>
+        <f>E17</f>
+        <v>iam_role-17</v>
       </c>
       <c r="F27" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G27" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="H27" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -4666,15 +4751,33 @@
         <v>iam_role-18</v>
       </c>
       <c r="F28" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G28" t="s">
-        <v>206</v>
+        <v>153</v>
       </c>
       <c r="H28" t="s">
-        <v>206</v>
+        <v>153</v>
       </c>
       <c r="I28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25">
+      <c r="E29" t="str">
+        <f>E18</f>
+        <v>iam_role-18</v>
+      </c>
+      <c r="F29" t="s">
+        <v>215</v>
+      </c>
+      <c r="G29" t="s">
+        <v>205</v>
+      </c>
+      <c r="H29" t="s">
+        <v>205</v>
+      </c>
+      <c r="I29">
         <v>1</v>
       </c>
     </row>
@@ -4692,12 +4795,12 @@
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="14.5546875" customWidth="1"/>
+    <col min="5" max="5" width="14.58203125" customWidth="1"/>
     <col min="6" max="6" width="18.33203125" customWidth="1"/>
     <col min="7" max="7" width="15.33203125" customWidth="1"/>
-    <col min="8" max="8" width="17.21875" customWidth="1"/>
+    <col min="8" max="8" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -4777,10 +4880,10 @@
         <v>75</v>
       </c>
       <c r="F8" t="s">
+        <v>158</v>
+      </c>
+      <c r="G8" t="s">
         <v>159</v>
-      </c>
-      <c r="G8" t="s">
-        <v>160</v>
       </c>
       <c r="H8" t="s">
         <v>60</v>
@@ -4789,10 +4892,10 @@
         <v>76</v>
       </c>
       <c r="J8" t="s">
+        <v>160</v>
+      </c>
+      <c r="K8" t="s">
         <v>161</v>
-      </c>
-      <c r="K8" t="s">
-        <v>162</v>
       </c>
       <c r="M8" t="s">
         <v>59</v>
@@ -4809,10 +4912,10 @@
         <v>77</v>
       </c>
       <c r="F9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H9" t="s">
         <v>60</v>
@@ -4821,7 +4924,7 @@
         <v>79</v>
       </c>
       <c r="J9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M9" t="s">
         <v>59</v>
@@ -4838,10 +4941,10 @@
         <v>78</v>
       </c>
       <c r="F10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H10" t="s">
         <v>60</v>
@@ -4850,10 +4953,10 @@
         <v>76</v>
       </c>
       <c r="J10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M10" t="s">
         <v>59</v>
@@ -4870,10 +4973,10 @@
         <v>80</v>
       </c>
       <c r="F11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H11" t="s">
         <v>60</v>
@@ -4882,10 +4985,10 @@
         <v>76</v>
       </c>
       <c r="J11" t="s">
+        <v>167</v>
+      </c>
+      <c r="K11" t="s">
         <v>168</v>
-      </c>
-      <c r="K11" t="s">
-        <v>169</v>
       </c>
       <c r="M11" t="s">
         <v>59</v>
@@ -4902,10 +5005,10 @@
         <v>81</v>
       </c>
       <c r="F12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H12" t="s">
         <v>60</v>
@@ -4914,10 +5017,10 @@
         <v>76</v>
       </c>
       <c r="J12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M12" t="s">
         <v>59</v>
@@ -4934,10 +5037,10 @@
         <v>82</v>
       </c>
       <c r="F13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H13" t="s">
         <v>60</v>
@@ -4946,10 +5049,10 @@
         <v>76</v>
       </c>
       <c r="J13" t="s">
+        <v>172</v>
+      </c>
+      <c r="K13" t="s">
         <v>173</v>
-      </c>
-      <c r="K13" t="s">
-        <v>174</v>
       </c>
       <c r="M13" t="s">
         <v>59</v>
@@ -4966,10 +5069,10 @@
         <v>83</v>
       </c>
       <c r="F14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H14" t="s">
         <v>60</v>
@@ -4978,7 +5081,7 @@
         <v>76</v>
       </c>
       <c r="J14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K14" t="s">
         <v>146</v>
@@ -4998,10 +5101,10 @@
         <v>84</v>
       </c>
       <c r="F15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H15" t="s">
         <v>60</v>
@@ -5010,10 +5113,10 @@
         <v>76</v>
       </c>
       <c r="J15" t="s">
+        <v>177</v>
+      </c>
+      <c r="K15" t="s">
         <v>178</v>
-      </c>
-      <c r="K15" t="s">
-        <v>179</v>
       </c>
       <c r="M15" t="s">
         <v>59</v>
@@ -5030,10 +5133,10 @@
         <v>85</v>
       </c>
       <c r="F16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H16" t="s">
         <v>60</v>
@@ -5042,10 +5145,10 @@
         <v>76</v>
       </c>
       <c r="J16" t="s">
+        <v>180</v>
+      </c>
+      <c r="K16" t="s">
         <v>181</v>
-      </c>
-      <c r="K16" t="s">
-        <v>182</v>
       </c>
       <c r="M16" t="s">
         <v>59</v>
@@ -5062,10 +5165,10 @@
         <v>86</v>
       </c>
       <c r="F17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H17" t="s">
         <v>60</v>
@@ -5074,10 +5177,10 @@
         <v>76</v>
       </c>
       <c r="J17" t="s">
+        <v>183</v>
+      </c>
+      <c r="K17" t="s">
         <v>184</v>
-      </c>
-      <c r="K17" t="s">
-        <v>185</v>
       </c>
       <c r="M17" t="s">
         <v>59</v>
@@ -5094,10 +5197,10 @@
         <v>87</v>
       </c>
       <c r="F18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H18" t="s">
         <v>60</v>
@@ -5106,10 +5209,10 @@
         <v>76</v>
       </c>
       <c r="J18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M18" t="s">
         <v>59</v>
@@ -5126,10 +5229,10 @@
         <v>88</v>
       </c>
       <c r="F19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H19" t="s">
         <v>60</v>
@@ -5138,10 +5241,10 @@
         <v>76</v>
       </c>
       <c r="J19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M19" t="s">
         <v>59</v>
@@ -5187,7 +5290,7 @@
         <v>96</v>
       </c>
       <c r="F22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G22" t="str">
         <f>角色!$E$10</f>
@@ -5206,7 +5309,7 @@
         <v>96</v>
       </c>
       <c r="F23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G23" t="str">
         <f>角色!$E$10</f>
@@ -5225,7 +5328,7 @@
         <v>96</v>
       </c>
       <c r="F24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G24" t="str">
         <f>角色!$E$10</f>
@@ -5244,7 +5347,7 @@
         <v>96</v>
       </c>
       <c r="F25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G25" t="str">
         <f>角色!$E$11</f>
@@ -5263,7 +5366,7 @@
         <v>96</v>
       </c>
       <c r="F26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G26" t="str">
         <f>角色!$E$11</f>
@@ -5282,7 +5385,7 @@
         <v>96</v>
       </c>
       <c r="F27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G27" t="str">
         <f>角色!$E$11</f>
@@ -5301,7 +5404,7 @@
         <v>96</v>
       </c>
       <c r="F28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G28" t="str">
         <f>角色!$E$12</f>
@@ -5320,7 +5423,7 @@
         <v>96</v>
       </c>
       <c r="F29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G29" t="str">
         <f>角色!$E$12</f>
@@ -5339,7 +5442,7 @@
         <v>96</v>
       </c>
       <c r="F30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G30" t="str">
         <f>角色!$E$12</f>
@@ -5358,7 +5461,7 @@
         <v>96</v>
       </c>
       <c r="F31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G31" t="str">
         <f>角色!$E$12</f>
@@ -5377,7 +5480,7 @@
         <v>96</v>
       </c>
       <c r="F32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G32" t="str">
         <f>角色!$E$13</f>
@@ -5396,7 +5499,7 @@
         <v>96</v>
       </c>
       <c r="F33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G33" t="str">
         <f>角色!$E$13</f>
@@ -5415,7 +5518,7 @@
         <v>96</v>
       </c>
       <c r="F34" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G34" t="str">
         <f>角色!$E$13</f>
@@ -5434,7 +5537,7 @@
         <v>96</v>
       </c>
       <c r="F35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G35" t="str">
         <f>角色!$E$13</f>
@@ -5453,7 +5556,7 @@
         <v>96</v>
       </c>
       <c r="F36" s="64" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G36" s="64" t="str">
         <f>角色!E15</f>
@@ -5472,7 +5575,7 @@
         <v>96</v>
       </c>
       <c r="F37" s="64" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G37" s="64" t="str">
         <f>角色!E15</f>
@@ -5491,7 +5594,7 @@
         <v>96</v>
       </c>
       <c r="F38" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G38" t="str">
         <f>角色!E16</f>
@@ -5510,7 +5613,7 @@
         <v>96</v>
       </c>
       <c r="F39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G39" t="str">
         <f>角色!E16</f>
@@ -5529,7 +5632,7 @@
         <v>96</v>
       </c>
       <c r="F40" s="62" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G40" s="62" t="str">
         <f>角色!E17</f>
@@ -5548,7 +5651,7 @@
         <v>96</v>
       </c>
       <c r="F41" s="62" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G41" s="62" t="str">
         <f>角色!E17</f>
@@ -5567,7 +5670,7 @@
         <v>96</v>
       </c>
       <c r="F42" s="62" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G42" s="62" t="str">
         <f>角色!E17</f>
@@ -5586,7 +5689,7 @@
         <v>96</v>
       </c>
       <c r="F43" s="63" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G43" s="63" t="str">
         <f>角色!E18</f>
@@ -5605,7 +5708,7 @@
         <v>96</v>
       </c>
       <c r="F44" s="63" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G44" s="63" t="str">
         <f>角色!E18</f>
@@ -5624,7 +5727,7 @@
         <v>96</v>
       </c>
       <c r="F45" s="63" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G45" s="63" t="str">
         <f>角色!E18</f>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-role-label.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\new-choerodon\choerodon-iam\src\main\resources\script\db\init-data\hzero_platform\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99263324-47BA-4D29-BF8A-E2B079842453}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459A1381-A4B6-4E0F-A144-1479A16BC7A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="223">
   <si>
     <r>
       <rPr>
@@ -2528,51 +2528,16 @@
     <t>Tenant admin</t>
   </si>
   <si>
-    <t>市场审核员</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>role/site/default/developer</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>role/site/default/m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>arketAuditor</t>
-    </r>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>site</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>organization</t>
     <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>role/site/default/marketAuditor</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>市场审核员市场审核员</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>Market auditor</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>iam_role-19</t>
   </si>
 </sst>
 </file>
@@ -3731,10 +3696,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:Y29"/>
+  <dimension ref="A1:Y28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18:E19"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="C19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -3873,7 +3838,7 @@
         <v>118</v>
       </c>
       <c r="J8" s="61" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K8" t="s">
         <v>59</v>
@@ -3885,7 +3850,7 @@
         <v>59</v>
       </c>
       <c r="N8" s="61" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O8" t="s">
         <v>59</v>
@@ -4237,7 +4202,7 @@
         <v>156</v>
       </c>
       <c r="H14" s="61" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J14" t="s">
         <v>62</v>
@@ -4540,102 +4505,57 @@
       </c>
     </row>
     <row r="19" spans="1:25">
-      <c r="E19" s="61" t="s">
-        <v>228</v>
-      </c>
-      <c r="F19" s="61" t="s">
-        <v>220</v>
-      </c>
-      <c r="G19" s="61" t="s">
-        <v>220</v>
-      </c>
-      <c r="H19" s="61" t="s">
-        <v>222</v>
-      </c>
-      <c r="J19" s="61" t="s">
-        <v>223</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19" t="str">
-        <f>角色!$E$9</f>
-        <v>iam_role-9</v>
-      </c>
-      <c r="N19" t="s">
-        <v>58</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+    </row>
+    <row r="20" spans="1:25">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" t="s">
+        <v>157</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="G20" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="H20" s="61" t="s">
+        <v>211</v>
+      </c>
+      <c r="I20" t="s">
+        <v>212</v>
+      </c>
+      <c r="J20" s="51"/>
+    </row>
+    <row r="21" spans="1:25">
+      <c r="E21" t="str">
+        <f>E15</f>
+        <v>iam_role-15</v>
+      </c>
+      <c r="F21" t="s">
+        <v>218</v>
+      </c>
+      <c r="G21" s="61" t="s">
+        <v>191</v>
+      </c>
+      <c r="H21" s="61" t="s">
+        <v>191</v>
+      </c>
+      <c r="I21">
         <v>1</v>
       </c>
-      <c r="Q19">
-        <v>1</v>
-      </c>
-      <c r="R19">
-        <v>1</v>
-      </c>
-      <c r="S19">
-        <v>1</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19" s="61" t="s">
-        <v>225</v>
-      </c>
-      <c r="V19" s="61" t="s">
-        <v>225</v>
-      </c>
-      <c r="W19" s="61">
-        <v>0</v>
-      </c>
-      <c r="X19" s="61" t="s">
-        <v>226</v>
-      </c>
-      <c r="Y19" s="61" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25">
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-    </row>
-    <row r="21" spans="1:25">
-      <c r="A21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" t="s">
-        <v>157</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>209</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="F21" s="29" t="s">
-        <v>210</v>
-      </c>
-      <c r="G21" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="H21" s="61" t="s">
-        <v>211</v>
-      </c>
-      <c r="I21" t="s">
-        <v>212</v>
-      </c>
-      <c r="J21" s="51"/>
     </row>
     <row r="22" spans="1:25">
       <c r="E22" t="str">
@@ -4643,13 +4563,13 @@
         <v>iam_role-15</v>
       </c>
       <c r="F22" t="s">
-        <v>218</v>
-      </c>
-      <c r="G22" s="61" t="s">
-        <v>191</v>
-      </c>
-      <c r="H22" s="61" t="s">
-        <v>191</v>
+        <v>215</v>
+      </c>
+      <c r="G22" t="s">
+        <v>219</v>
+      </c>
+      <c r="H22" t="s">
+        <v>219</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -4657,17 +4577,17 @@
     </row>
     <row r="23" spans="1:25">
       <c r="E23" t="str">
-        <f>E15</f>
-        <v>iam_role-15</v>
+        <f>E16</f>
+        <v>iam_role-16</v>
       </c>
       <c r="F23" t="s">
-        <v>215</v>
-      </c>
-      <c r="G23" t="s">
-        <v>219</v>
-      </c>
-      <c r="H23" t="s">
-        <v>219</v>
+        <v>218</v>
+      </c>
+      <c r="G23" s="61" t="s">
+        <v>196</v>
+      </c>
+      <c r="H23" s="61" t="s">
+        <v>196</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -4679,13 +4599,13 @@
         <v>iam_role-16</v>
       </c>
       <c r="F24" t="s">
-        <v>218</v>
-      </c>
-      <c r="G24" s="61" t="s">
-        <v>196</v>
-      </c>
-      <c r="H24" s="61" t="s">
-        <v>196</v>
+        <v>215</v>
+      </c>
+      <c r="G24" t="s">
+        <v>197</v>
+      </c>
+      <c r="H24" t="s">
+        <v>197</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -4693,17 +4613,17 @@
     </row>
     <row r="25" spans="1:25">
       <c r="E25" t="str">
-        <f>E16</f>
-        <v>iam_role-16</v>
+        <f>E17</f>
+        <v>iam_role-17</v>
       </c>
       <c r="F25" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G25" t="s">
-        <v>197</v>
+        <v>145</v>
       </c>
       <c r="H25" t="s">
-        <v>197</v>
+        <v>145</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -4715,13 +4635,13 @@
         <v>iam_role-17</v>
       </c>
       <c r="F26" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G26" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H26" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -4729,17 +4649,17 @@
     </row>
     <row r="27" spans="1:25">
       <c r="E27" t="str">
-        <f>E17</f>
-        <v>iam_role-17</v>
+        <f>E18</f>
+        <v>iam_role-18</v>
       </c>
       <c r="F27" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G27" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="H27" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -4751,33 +4671,15 @@
         <v>iam_role-18</v>
       </c>
       <c r="F28" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G28" t="s">
-        <v>153</v>
+        <v>205</v>
       </c>
       <c r="H28" t="s">
-        <v>153</v>
+        <v>205</v>
       </c>
       <c r="I28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25">
-      <c r="E29" t="str">
-        <f>E18</f>
-        <v>iam_role-18</v>
-      </c>
-      <c r="F29" t="s">
-        <v>215</v>
-      </c>
-      <c r="G29" t="s">
-        <v>205</v>
-      </c>
-      <c r="H29" t="s">
-        <v>205</v>
-      </c>
-      <c r="I29">
         <v>1</v>
       </c>
     </row>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-role-label.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\new-choerodon\choerodon-iam\src\main\resources\script\db\init-data\hzero_platform\hzero_platform\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\choerodon\choerodon-iam\src\main\resources\script\db\init-data\hzero_platform\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459A1381-A4B6-4E0F-A144-1479A16BC7A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -23,12 +22,12 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="215">
   <si>
     <r>
       <rPr>
@@ -2072,21 +2071,12 @@
     <t>visible_flag</t>
   </si>
   <si>
-    <t>iam_label-8</t>
-  </si>
-  <si>
     <t>TENANT</t>
   </si>
   <si>
-    <t>iam_label-9</t>
-  </si>
-  <si>
     <t>iam_label-10</t>
   </si>
   <si>
-    <t>SITE</t>
-  </si>
-  <si>
     <t>iam_label-11</t>
   </si>
   <si>
@@ -2321,22 +2311,7 @@
     <t>角色权限</t>
   </si>
   <si>
-    <t>TENANT_MGR</t>
-  </si>
-  <si>
     <t>ROLE</t>
-  </si>
-  <si>
-    <t>租户管理员标签</t>
-  </si>
-  <si>
-    <t>Tenant Manager Label</t>
-  </si>
-  <si>
-    <t>SITE_MGR</t>
-  </si>
-  <si>
-    <t>平台管理员标签</t>
   </si>
   <si>
     <t>TENANT_ROLE_TPL</t>
@@ -2543,7 +2518,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="52">
     <font>
       <sz val="12"/>
@@ -3114,7 +3089,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
@@ -3454,7 +3429,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3695,10 +3670,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+    <sheetView topLeftCell="C7" workbookViewId="0">
       <selection activeCell="C19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
@@ -3752,10 +3727,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D7" s="44" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E7" s="45" t="s">
         <v>52</v>
@@ -3770,7 +3745,7 @@
         <v>53</v>
       </c>
       <c r="I7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J7" t="s">
         <v>68</v>
@@ -3779,66 +3754,66 @@
         <v>56</v>
       </c>
       <c r="L7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M7" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="N7" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="O7" t="s">
         <v>101</v>
       </c>
-      <c r="M7" s="48" t="s">
+      <c r="P7" t="s">
         <v>102</v>
       </c>
-      <c r="N7" s="49" t="s">
+      <c r="Q7" t="s">
         <v>103</v>
       </c>
-      <c r="O7" t="s">
+      <c r="R7" t="s">
         <v>104</v>
       </c>
-      <c r="P7" t="s">
+      <c r="S7" t="s">
         <v>105</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="T7" t="s">
         <v>106</v>
-      </c>
-      <c r="R7" t="s">
-        <v>107</v>
-      </c>
-      <c r="S7" t="s">
-        <v>108</v>
-      </c>
-      <c r="T7" t="s">
-        <v>109</v>
       </c>
       <c r="U7" t="s">
         <v>57</v>
       </c>
       <c r="V7" t="s">
+        <v>107</v>
+      </c>
+      <c r="W7" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="X7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y7" t="s">
         <v>110</v>
-      </c>
-      <c r="W7" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="X7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="E8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H8" t="s">
         <v>114</v>
       </c>
-      <c r="F8" t="s">
+      <c r="I8" t="s">
         <v>115</v>
       </c>
-      <c r="G8" t="s">
-        <v>116</v>
-      </c>
-      <c r="H8" t="s">
-        <v>117</v>
-      </c>
-      <c r="I8" t="s">
-        <v>118</v>
-      </c>
       <c r="J8" s="61" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="K8" t="s">
         <v>59</v>
@@ -3850,7 +3825,7 @@
         <v>59</v>
       </c>
       <c r="N8" s="61" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="O8" t="s">
         <v>59</v>
@@ -3871,10 +3846,10 @@
         <v>59</v>
       </c>
       <c r="U8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="V8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="W8" t="s">
         <v>59</v>
@@ -3882,19 +3857,19 @@
     </row>
     <row r="9" spans="1:25">
       <c r="E9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F9" t="s">
+        <v>117</v>
+      </c>
+      <c r="G9" t="s">
+        <v>118</v>
+      </c>
+      <c r="H9" t="s">
         <v>119</v>
       </c>
-      <c r="F9" t="s">
+      <c r="I9" t="s">
         <v>120</v>
-      </c>
-      <c r="G9" t="s">
-        <v>121</v>
-      </c>
-      <c r="H9" t="s">
-        <v>122</v>
-      </c>
-      <c r="I9" t="s">
-        <v>123</v>
       </c>
       <c r="J9" t="s">
         <v>58</v>
@@ -3930,10 +3905,10 @@
         <v>59</v>
       </c>
       <c r="U9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="V9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="W9" t="s">
         <v>59</v>
@@ -3941,16 +3916,16 @@
     </row>
     <row r="10" spans="1:25">
       <c r="E10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" t="s">
+        <v>123</v>
+      </c>
+      <c r="H10" t="s">
         <v>124</v>
-      </c>
-      <c r="F10" t="s">
-        <v>125</v>
-      </c>
-      <c r="G10" t="s">
-        <v>126</v>
-      </c>
-      <c r="H10" t="s">
-        <v>127</v>
       </c>
       <c r="J10" t="s">
         <v>58</v>
@@ -3987,10 +3962,10 @@
         <v>59</v>
       </c>
       <c r="U10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="V10" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="W10" t="s">
         <v>59</v>
@@ -3999,21 +3974,21 @@
         <v>61</v>
       </c>
       <c r="Y10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="E11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" t="s">
+        <v>130</v>
+      </c>
+      <c r="H11" t="s">
         <v>131</v>
-      </c>
-      <c r="F11" t="s">
-        <v>132</v>
-      </c>
-      <c r="G11" t="s">
-        <v>133</v>
-      </c>
-      <c r="H11" t="s">
-        <v>134</v>
       </c>
       <c r="J11" t="s">
         <v>58</v>
@@ -4050,33 +4025,33 @@
         <v>59</v>
       </c>
       <c r="U11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="V11" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="W11" t="s">
         <v>59</v>
       </c>
       <c r="X11" s="61" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="Y11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="E12" t="s">
+        <v>136</v>
+      </c>
+      <c r="F12" t="s">
+        <v>137</v>
+      </c>
+      <c r="G12" t="s">
+        <v>138</v>
+      </c>
+      <c r="H12" t="s">
         <v>139</v>
-      </c>
-      <c r="F12" t="s">
-        <v>140</v>
-      </c>
-      <c r="G12" t="s">
-        <v>141</v>
-      </c>
-      <c r="H12" t="s">
-        <v>142</v>
       </c>
       <c r="J12" t="s">
         <v>58</v>
@@ -4113,33 +4088,33 @@
         <v>59</v>
       </c>
       <c r="U12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="V12" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="W12" t="s">
         <v>59</v>
       </c>
       <c r="X12" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Y12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="E13" t="s">
+        <v>144</v>
+      </c>
+      <c r="F13" t="s">
+        <v>145</v>
+      </c>
+      <c r="G13" t="s">
+        <v>146</v>
+      </c>
+      <c r="H13" t="s">
         <v>147</v>
-      </c>
-      <c r="F13" t="s">
-        <v>148</v>
-      </c>
-      <c r="G13" t="s">
-        <v>149</v>
-      </c>
-      <c r="H13" t="s">
-        <v>150</v>
       </c>
       <c r="J13" t="s">
         <v>58</v>
@@ -4176,33 +4151,33 @@
         <v>59</v>
       </c>
       <c r="U13" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="V13" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="W13" t="s">
         <v>59</v>
       </c>
       <c r="X13" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="Y13" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="E14" s="61" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F14" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G14" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H14" s="61" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="J14" t="s">
         <v>62</v>
@@ -4239,10 +4214,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="V14" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -4250,16 +4225,16 @@
     </row>
     <row r="15" spans="1:25">
       <c r="E15" s="61" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F15" s="61" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="G15" s="61" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H15" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="J15" t="s">
         <v>58</v>
@@ -4297,10 +4272,10 @@
         <v>0</v>
       </c>
       <c r="U15" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="V15" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="W15">
         <v>0</v>
@@ -4309,21 +4284,21 @@
         <v>61</v>
       </c>
       <c r="Y15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="E16" s="61" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="F16" s="61" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="G16" s="61" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="H16" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="J16" t="s">
         <v>58</v>
@@ -4361,33 +4336,33 @@
         <v>1</v>
       </c>
       <c r="U16" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="V16" s="61" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="W16" s="61">
         <v>0</v>
       </c>
       <c r="X16" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Y16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="E17" s="61" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="F17" s="61" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G17" s="61" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H17" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="J17" t="s">
         <v>58</v>
@@ -4425,33 +4400,33 @@
         <v>1</v>
       </c>
       <c r="U17" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="V17" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="W17" s="61">
         <v>0</v>
       </c>
       <c r="X17" s="61" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="Y17" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:25">
       <c r="E18" s="61" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="F18" s="61" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="G18" s="61" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H18" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="J18" t="s">
         <v>58</v>
@@ -4489,19 +4464,19 @@
         <v>1</v>
       </c>
       <c r="U18" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="V18" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="W18" s="61">
         <v>0</v>
       </c>
       <c r="X18" s="61" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="Y18" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -4517,25 +4492,25 @@
         <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="F20" s="29" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="G20" s="29" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="H20" s="61" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="I20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="J20" s="51"/>
     </row>
@@ -4545,13 +4520,13 @@
         <v>iam_role-15</v>
       </c>
       <c r="F21" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G21" s="61" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H21" s="61" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -4563,13 +4538,13 @@
         <v>iam_role-15</v>
       </c>
       <c r="F22" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="G22" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="H22" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -4581,13 +4556,13 @@
         <v>iam_role-16</v>
       </c>
       <c r="F23" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G23" s="61" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="H23" s="61" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -4599,13 +4574,13 @@
         <v>iam_role-16</v>
       </c>
       <c r="F24" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="G24" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="H24" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -4617,13 +4592,13 @@
         <v>iam_role-17</v>
       </c>
       <c r="F25" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G25" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H25" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -4635,13 +4610,13 @@
         <v>iam_role-17</v>
       </c>
       <c r="F26" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="G26" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H26" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -4653,13 +4628,13 @@
         <v>iam_role-18</v>
       </c>
       <c r="F27" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G27" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H27" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -4671,13 +4646,13 @@
         <v>iam_role-18</v>
       </c>
       <c r="F28" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="G28" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="H28" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -4690,11 +4665,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:O45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -4779,25 +4754,25 @@
     </row>
     <row r="8" spans="1:15">
       <c r="E8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G8" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H8" t="s">
         <v>60</v>
       </c>
       <c r="I8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="M8" t="s">
         <v>59</v>
@@ -4806,7 +4781,7 @@
         <v>60</v>
       </c>
       <c r="O8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -4814,19 +4789,22 @@
         <v>77</v>
       </c>
       <c r="F9" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G9" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H9" t="s">
         <v>60</v>
       </c>
       <c r="I9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J9" t="s">
-        <v>163</v>
+        <v>159</v>
+      </c>
+      <c r="K9" t="s">
+        <v>160</v>
       </c>
       <c r="M9" t="s">
         <v>59</v>
@@ -4834,8 +4812,8 @@
       <c r="N9" t="s">
         <v>60</v>
       </c>
-      <c r="O9" t="s">
-        <v>60</v>
+      <c r="O9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -4843,22 +4821,22 @@
         <v>78</v>
       </c>
       <c r="F10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G10" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H10" t="s">
         <v>60</v>
       </c>
       <c r="I10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J10" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K10" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="M10" t="s">
         <v>59</v>
@@ -4872,25 +4850,25 @@
     </row>
     <row r="11" spans="1:15">
       <c r="E11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H11" t="s">
         <v>60</v>
       </c>
       <c r="I11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J11" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="K11" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M11" t="s">
         <v>59</v>
@@ -4898,31 +4876,31 @@
       <c r="N11" t="s">
         <v>60</v>
       </c>
-      <c r="O11" t="s">
-        <v>59</v>
+      <c r="O11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="E12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F12" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G12" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H12" t="s">
         <v>60</v>
       </c>
       <c r="I12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J12" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="K12" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="M12" t="s">
         <v>59</v>
@@ -4936,25 +4914,25 @@
     </row>
     <row r="13" spans="1:15">
       <c r="E13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F13" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G13" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H13" t="s">
         <v>60</v>
       </c>
       <c r="I13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J13" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K13" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M13" t="s">
         <v>59</v>
@@ -4968,25 +4946,25 @@
     </row>
     <row r="14" spans="1:15">
       <c r="E14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F14" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G14" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H14" t="s">
         <v>60</v>
       </c>
       <c r="I14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J14" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K14" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="M14" t="s">
         <v>59</v>
@@ -5000,25 +4978,25 @@
     </row>
     <row r="15" spans="1:15">
       <c r="E15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G15" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H15" t="s">
         <v>60</v>
       </c>
       <c r="I15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M15" t="s">
         <v>59</v>
@@ -5026,31 +5004,31 @@
       <c r="N15" t="s">
         <v>60</v>
       </c>
-      <c r="O15" t="s">
-        <v>59</v>
+      <c r="O15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="E16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G16" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H16" t="s">
         <v>60</v>
       </c>
       <c r="I16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J16" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K16" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M16" t="s">
         <v>59</v>
@@ -5059,30 +5037,30 @@
         <v>60</v>
       </c>
       <c r="O16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="E17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F17" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G17" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H17" t="s">
         <v>60</v>
       </c>
       <c r="I17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J17" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K17" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="M17" t="s">
         <v>59</v>
@@ -5094,105 +5072,79 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
-      <c r="E18" t="s">
+    <row r="19" spans="1:15">
+      <c r="A19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="F18" t="s">
-        <v>185</v>
-      </c>
-      <c r="G18" t="s">
-        <v>159</v>
-      </c>
-      <c r="H18" t="s">
-        <v>60</v>
-      </c>
-      <c r="I18" t="s">
-        <v>76</v>
-      </c>
-      <c r="J18" t="s">
-        <v>186</v>
-      </c>
-      <c r="K18" t="s">
-        <v>185</v>
-      </c>
-      <c r="M18" t="s">
-        <v>59</v>
-      </c>
-      <c r="N18" t="s">
-        <v>60</v>
-      </c>
-      <c r="O18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="E19" t="s">
+      <c r="E19" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="F19" t="s">
-        <v>187</v>
-      </c>
-      <c r="G19" t="s">
-        <v>159</v>
-      </c>
-      <c r="H19" t="s">
-        <v>60</v>
+      <c r="F19" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="H19" s="60" t="s">
+        <v>91</v>
       </c>
       <c r="I19" t="s">
-        <v>76</v>
-      </c>
-      <c r="J19" t="s">
-        <v>188</v>
-      </c>
-      <c r="K19" t="s">
-        <v>187</v>
-      </c>
-      <c r="M19" t="s">
-        <v>59</v>
-      </c>
-      <c r="N19" t="s">
-        <v>60</v>
-      </c>
-      <c r="O19" t="s">
-        <v>60</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="E20" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" t="s">
+        <v>155</v>
+      </c>
+      <c r="G20" t="str">
+        <f>角色!$E$10</f>
+        <v>iam_role-10</v>
+      </c>
+      <c r="H20" t="str">
+        <f>角色标签数据!$E$8</f>
+        <v>iam_label-10</v>
+      </c>
+      <c r="I20" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" t="s">
-        <v>89</v>
-      </c>
-      <c r="D21" s="56" t="s">
-        <v>90</v>
-      </c>
-      <c r="E21" s="57" t="s">
-        <v>91</v>
-      </c>
-      <c r="F21" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="G21" s="59" t="s">
+      <c r="E21" t="s">
         <v>93</v>
       </c>
-      <c r="H21" s="60" t="s">
+      <c r="F21" t="s">
+        <v>155</v>
+      </c>
+      <c r="G21" t="str">
+        <f>角色!$E$10</f>
+        <v>iam_role-10</v>
+      </c>
+      <c r="H21" t="str">
+        <f>角色标签数据!$E$9</f>
+        <v>iam_label-11</v>
+      </c>
+      <c r="I21" t="s">
         <v>94</v>
-      </c>
-      <c r="I21" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="E22" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F22" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G22" t="str">
         <f>角色!$E$10</f>
@@ -5200,447 +5152,409 @@
       </c>
       <c r="H22" t="str">
         <f>角色标签数据!$E$10</f>
-        <v>iam_label-10</v>
+        <v>iam_label-12</v>
       </c>
       <c r="I22" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="E23" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F23" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G23" t="str">
-        <f>角色!$E$10</f>
-        <v>iam_role-10</v>
+        <f>角色!$E$11</f>
+        <v>iam_role-11</v>
       </c>
       <c r="H23" t="str">
-        <f>角色标签数据!$E$11</f>
-        <v>iam_label-11</v>
+        <f>角色标签数据!$E$8</f>
+        <v>iam_label-10</v>
       </c>
       <c r="I23" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="E24" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F24" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G24" t="str">
-        <f>角色!$E$10</f>
-        <v>iam_role-10</v>
+        <f>角色!$E$11</f>
+        <v>iam_role-11</v>
       </c>
       <c r="H24" t="str">
-        <f>角色标签数据!$E$12</f>
-        <v>iam_label-12</v>
+        <f>角色标签数据!$E$9</f>
+        <v>iam_label-11</v>
       </c>
       <c r="I24" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="E25" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F25" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G25" t="str">
         <f>角色!$E$11</f>
         <v>iam_role-11</v>
       </c>
       <c r="H25" t="str">
-        <f>角色标签数据!$E$10</f>
-        <v>iam_label-10</v>
+        <f>角色标签数据!$E$13</f>
+        <v>iam_label-15</v>
       </c>
       <c r="I25" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="E26" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F26" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G26" t="str">
-        <f>角色!$E$11</f>
-        <v>iam_role-11</v>
+        <f>角色!$E$12</f>
+        <v>iam_role-12</v>
       </c>
       <c r="H26" t="str">
-        <f>角色标签数据!$E$11</f>
-        <v>iam_label-11</v>
+        <f>角色标签数据!$E$8</f>
+        <v>iam_label-10</v>
       </c>
       <c r="I26" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="E27" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F27" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G27" t="str">
-        <f>角色!$E$11</f>
-        <v>iam_role-11</v>
+        <f>角色!$E$12</f>
+        <v>iam_role-12</v>
       </c>
       <c r="H27" t="str">
-        <f>角色标签数据!$E$15</f>
-        <v>iam_label-15</v>
+        <f>角色标签数据!$E$11</f>
+        <v>iam_label-13</v>
       </c>
       <c r="I27" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="E28" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F28" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G28" t="str">
         <f>角色!$E$12</f>
         <v>iam_role-12</v>
       </c>
       <c r="H28" t="str">
-        <f>角色标签数据!$E$10</f>
-        <v>iam_label-10</v>
+        <f>角色标签数据!$E$12</f>
+        <v>iam_label-14</v>
       </c>
       <c r="I28" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="E29" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F29" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G29" t="str">
         <f>角色!$E$12</f>
         <v>iam_role-12</v>
       </c>
       <c r="H29" t="str">
-        <f>角色标签数据!$E$13</f>
-        <v>iam_label-13</v>
+        <f>角色标签数据!$E$16</f>
+        <v>iam_label-18</v>
       </c>
       <c r="I29" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="E30" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F30" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G30" t="str">
-        <f>角色!$E$12</f>
-        <v>iam_role-12</v>
+        <f>角色!$E$13</f>
+        <v>iam_role-13</v>
       </c>
       <c r="H30" t="str">
-        <f>角色标签数据!$E$14</f>
-        <v>iam_label-14</v>
+        <f>角色标签数据!$E$8</f>
+        <v>iam_label-10</v>
       </c>
       <c r="I30" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="E31" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F31" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G31" t="str">
-        <f>角色!$E$12</f>
-        <v>iam_role-12</v>
+        <f>角色!$E$13</f>
+        <v>iam_role-13</v>
       </c>
       <c r="H31" t="str">
-        <f>角色标签数据!$E$18</f>
-        <v>iam_label-18</v>
+        <f>角色标签数据!$E$11</f>
+        <v>iam_label-13</v>
       </c>
       <c r="I31" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="E32" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F32" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G32" t="str">
         <f>角色!$E$13</f>
         <v>iam_role-13</v>
       </c>
       <c r="H32" t="str">
-        <f>角色标签数据!$E$10</f>
-        <v>iam_label-10</v>
+        <f>角色标签数据!$E$14</f>
+        <v>iam_label-16</v>
       </c>
       <c r="I32" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="5:9">
       <c r="E33" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F33" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G33" t="str">
         <f>角色!$E$13</f>
         <v>iam_role-13</v>
       </c>
       <c r="H33" t="str">
-        <f>角色标签数据!$E$13</f>
-        <v>iam_label-13</v>
+        <f>角色标签数据!$E$17</f>
+        <v>iam_label-19</v>
       </c>
       <c r="I33" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="5:9">
-      <c r="E34" t="s">
-        <v>96</v>
-      </c>
-      <c r="F34" t="s">
-        <v>159</v>
-      </c>
-      <c r="G34" t="str">
-        <f>角色!$E$13</f>
-        <v>iam_role-13</v>
-      </c>
-      <c r="H34" t="str">
-        <f>角色标签数据!$E$16</f>
-        <v>iam_label-16</v>
-      </c>
-      <c r="I34" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="35" spans="5:9">
-      <c r="E35" t="s">
-        <v>96</v>
-      </c>
-      <c r="F35" t="s">
-        <v>159</v>
-      </c>
-      <c r="G35" t="str">
-        <f>角色!$E$13</f>
-        <v>iam_role-13</v>
-      </c>
-      <c r="H35" t="str">
-        <f>角色标签数据!$E$19</f>
-        <v>iam_label-19</v>
-      </c>
-      <c r="I35" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="36" spans="5:9">
-      <c r="E36" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="F36" s="64" t="s">
-        <v>159</v>
-      </c>
-      <c r="G36" s="64" t="str">
+      <c r="E34" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="F34" s="64" t="s">
+        <v>155</v>
+      </c>
+      <c r="G34" s="64" t="str">
         <f>角色!E15</f>
         <v>iam_role-15</v>
       </c>
-      <c r="H36" s="64" t="str">
-        <f>E12</f>
+      <c r="H34" s="64" t="str">
+        <f>E10</f>
         <v>iam_label-12</v>
       </c>
-      <c r="I36" s="64" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="37" spans="5:9">
-      <c r="E37" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="F37" s="64" t="s">
-        <v>159</v>
-      </c>
-      <c r="G37" s="64" t="str">
+      <c r="I34" s="64" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="5:9">
+      <c r="E35" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="F35" s="64" t="s">
+        <v>155</v>
+      </c>
+      <c r="G35" s="64" t="str">
         <f>角色!E15</f>
         <v>iam_role-15</v>
       </c>
-      <c r="H37" s="64" t="str">
-        <f>E11</f>
+      <c r="H35" s="64" t="str">
+        <f>E9</f>
         <v>iam_label-11</v>
       </c>
-      <c r="I37" s="64" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="38" spans="5:9">
-      <c r="E38" t="s">
-        <v>96</v>
-      </c>
-      <c r="F38" t="s">
-        <v>159</v>
-      </c>
-      <c r="G38" t="str">
+      <c r="I35" s="64" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="5:9">
+      <c r="E36" t="s">
+        <v>93</v>
+      </c>
+      <c r="F36" t="s">
+        <v>155</v>
+      </c>
+      <c r="G36" t="str">
         <f>角色!E16</f>
         <v>iam_role-16</v>
       </c>
-      <c r="H38" t="str">
-        <f>E11</f>
+      <c r="H36" t="str">
+        <f>E9</f>
         <v>iam_label-11</v>
       </c>
-      <c r="I38" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="39" spans="5:9">
-      <c r="E39" t="s">
-        <v>96</v>
-      </c>
-      <c r="F39" t="s">
-        <v>159</v>
-      </c>
-      <c r="G39" t="str">
+      <c r="I36" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="5:9">
+      <c r="E37" t="s">
+        <v>93</v>
+      </c>
+      <c r="F37" t="s">
+        <v>155</v>
+      </c>
+      <c r="G37" t="str">
         <f>角色!E16</f>
         <v>iam_role-16</v>
       </c>
-      <c r="H39" t="str">
-        <f>E15</f>
+      <c r="H37" t="str">
+        <f>E13</f>
         <v>iam_label-15</v>
       </c>
-      <c r="I39" t="s">
-        <v>97</v>
+      <c r="I37" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="5:9">
+      <c r="E38" s="62" t="s">
+        <v>93</v>
+      </c>
+      <c r="F38" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="G38" s="62" t="str">
+        <f>角色!E17</f>
+        <v>iam_role-17</v>
+      </c>
+      <c r="H38" s="62" t="str">
+        <f>E11</f>
+        <v>iam_label-13</v>
+      </c>
+      <c r="I38" s="62" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="5:9">
+      <c r="E39" s="62" t="s">
+        <v>93</v>
+      </c>
+      <c r="F39" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="G39" s="62" t="str">
+        <f>角色!E17</f>
+        <v>iam_role-17</v>
+      </c>
+      <c r="H39" s="62" t="str">
+        <f>E12</f>
+        <v>iam_label-14</v>
+      </c>
+      <c r="I39" s="62" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="5:9">
       <c r="E40" s="62" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F40" s="62" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G40" s="62" t="str">
         <f>角色!E17</f>
         <v>iam_role-17</v>
       </c>
       <c r="H40" s="62" t="str">
-        <f>E13</f>
+        <f>E16</f>
+        <v>iam_label-18</v>
+      </c>
+      <c r="I40" s="62" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="5:9">
+      <c r="E41" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="F41" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="G41" s="63" t="str">
+        <f>角色!E18</f>
+        <v>iam_role-18</v>
+      </c>
+      <c r="H41" s="63" t="str">
+        <f>E11</f>
         <v>iam_label-13</v>
       </c>
-      <c r="I40" s="62" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="41" spans="5:9">
-      <c r="E41" s="62" t="s">
-        <v>96</v>
-      </c>
-      <c r="F41" s="62" t="s">
-        <v>159</v>
-      </c>
-      <c r="G41" s="62" t="str">
-        <f>角色!E17</f>
-        <v>iam_role-17</v>
-      </c>
-      <c r="H41" s="62" t="str">
+      <c r="I41" s="63" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="5:9">
+      <c r="E42" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="F42" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="G42" s="63" t="str">
+        <f>角色!E18</f>
+        <v>iam_role-18</v>
+      </c>
+      <c r="H42" s="63" t="str">
         <f>E14</f>
-        <v>iam_label-14</v>
-      </c>
-      <c r="I41" s="62" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="42" spans="5:9">
-      <c r="E42" s="62" t="s">
-        <v>96</v>
-      </c>
-      <c r="F42" s="62" t="s">
-        <v>159</v>
-      </c>
-      <c r="G42" s="62" t="str">
-        <f>角色!E17</f>
-        <v>iam_role-17</v>
-      </c>
-      <c r="H42" s="62" t="str">
-        <f>E18</f>
-        <v>iam_label-18</v>
-      </c>
-      <c r="I42" s="62" t="s">
-        <v>97</v>
+        <v>iam_label-16</v>
+      </c>
+      <c r="I42" s="63" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="5:9">
       <c r="E43" s="63" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F43" s="63" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G43" s="63" t="str">
         <f>角色!E18</f>
         <v>iam_role-18</v>
       </c>
       <c r="H43" s="63" t="str">
-        <f>E13</f>
-        <v>iam_label-13</v>
+        <f>E17</f>
+        <v>iam_label-19</v>
       </c>
       <c r="I43" s="63" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="44" spans="5:9">
-      <c r="E44" s="63" t="s">
-        <v>96</v>
-      </c>
-      <c r="F44" s="63" t="s">
-        <v>159</v>
-      </c>
-      <c r="G44" s="63" t="str">
-        <f>角色!E18</f>
-        <v>iam_role-18</v>
-      </c>
-      <c r="H44" s="63" t="str">
-        <f>E16</f>
-        <v>iam_label-16</v>
-      </c>
-      <c r="I44" s="63" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="45" spans="5:9">
-      <c r="E45" s="63" t="s">
-        <v>96</v>
-      </c>
-      <c r="F45" s="63" t="s">
-        <v>159</v>
-      </c>
-      <c r="G45" s="63" t="str">
-        <f>角色!E18</f>
-        <v>iam_role-18</v>
-      </c>
-      <c r="H45" s="63" t="str">
-        <f>E19</f>
-        <v>iam_label-19</v>
-      </c>
-      <c r="I45" s="63" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
